--- a/docs/서울대 중앙도서관_CMS_API정리문서_다운로드_추가_20250303.xlsx
+++ b/docs/서울대 중앙도서관_CMS_API정리문서_다운로드_추가_20250303.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365daejin-my.sharepoint.com/personal/20001788_office_daejin_ac_kr/Documents/문서/카카오톡 받은 파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\@@Git\snu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14FDB08-C9C1-4E5E-9EF3-336BD412FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5D160A-5A94-435D-8348-6D4435BE6E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28800" yWindow="4020" windowWidth="21600" windowHeight="11385" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
+    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,6 +366,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -375,11 +393,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -401,33 +428,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE787AF-27B8-4204-BE6E-996C175DB7D0}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,24 +778,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -844,14 +844,14 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -912,26 +912,26 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -952,7 +952,7 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="3"/>
@@ -963,13 +963,13 @@
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -980,26 +980,26 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1017,13 +1017,13 @@
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1032,60 +1032,60 @@
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="16">
         <v>7171</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="3"/>
@@ -1093,35 +1093,35 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+    <row r="29" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="16">
         <v>7171</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -1144,50 +1144,50 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="16">
         <v>7171</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
@@ -1198,26 +1198,26 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="16">
         <v>7171</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -1246,21 +1246,18 @@
     <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="A18:F18"/>
@@ -1277,18 +1274,21 @@
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/docs/서울대 중앙도서관_CMS_API정리문서_다운로드_추가_20250303.xlsx
+++ b/docs/서울대 중앙도서관_CMS_API정리문서_다운로드_추가_20250303.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\@@Git\snu\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\snu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5D160A-5A94-435D-8348-6D4435BE6E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12718ADB-690E-43BF-9DCF-5123EC669B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9BA0EB50-66D6-457C-9112-1101DA2B1E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,68 +366,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE787AF-27B8-4204-BE6E-996C175DB7D0}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,24 +781,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -844,14 +847,14 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -912,26 +915,26 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -952,7 +955,7 @@
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="3"/>
@@ -963,13 +966,13 @@
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -980,26 +983,26 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1017,13 +1020,13 @@
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1032,60 +1035,60 @@
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="7">
         <v>7171</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="3"/>
@@ -1093,35 +1096,35 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="7">
         <v>7171</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -1144,50 +1147,50 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="7">
         <v>7171</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
@@ -1198,26 +1201,26 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="7">
         <v>7171</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -1246,18 +1249,21 @@
     <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="A18:F18"/>
@@ -1274,25 +1280,23 @@
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{4CC96AFB-AA0D-4EEB-82DC-1A8C28C37D38}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{AA42E91C-8212-4959-895D-30E68BF31755}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
